--- a/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (3).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (3).xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">bengteth\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">11/11/2019 12:12:14</t>
+    <t xml:space="preserve">20/11/2019 11:10:33</t>
   </si>
 </sst>
 </file>
